--- a/design/schematics/ArmControl/BOM.xlsx
+++ b/design/schematics/ArmControl/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>PART</t>
   </si>
@@ -115,6 +115,30 @@
   </si>
   <si>
     <t>http://www.mouser.com/ProductDetail/Fairchild-Semiconductor/1N4148/?qs=sGAEpiMZZMudZehw8RjeZWbu6z6oTQTL</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Fairchild-Semiconductor/FQP27P06/?qs=sGAEpiMZZMshyDBzk1%2fWi1oKJWRB0GXwqvciOrvtG%2f4%3d</t>
+  </si>
+  <si>
+    <t>Q1, Q2, Q5, Q6</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Fairchild-Semiconductor/FQP30N06L/?qs=%2fha2pyFaduji0fg%2flrI0nk1olBaTBVmAwVSKddLwzfQ%3d</t>
+  </si>
+  <si>
+    <t>Q3, Q4, Q7, Q8</t>
+  </si>
+  <si>
+    <t>P-Channel MOSFET</t>
+  </si>
+  <si>
+    <t>N-Channel MOSFET</t>
+  </si>
+  <si>
+    <t>FQP30N06L</t>
+  </si>
+  <si>
+    <t>FQP27P06</t>
   </si>
 </sst>
 </file>
@@ -491,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,6 +667,34 @@
         <v>21</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
@@ -651,9 +703,12 @@
     <hyperlink ref="D9" r:id="rId4"/>
     <hyperlink ref="D5" r:id="rId5"/>
     <hyperlink ref="D10" r:id="rId6"/>
+    <hyperlink ref="D6" r:id="rId7"/>
+    <hyperlink ref="D13" r:id="rId8"/>
+    <hyperlink ref="D14" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/design/schematics/ArmControl/BOM.xlsx
+++ b/design/schematics/ArmControl/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>PART</t>
   </si>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>FQP27P06</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Diodes-Incorporated/FMMT417TD/?qs=sGAEpiMZZMshyDBzk1%2fWizF0eVyYE44ZZcc0GAwJB3s%3d</t>
+  </si>
+  <si>
+    <t>NPN Transistors</t>
+  </si>
+  <si>
+    <t>T1 to T6</t>
+  </si>
+  <si>
+    <t>BF820-NPN-SOT23-BEC</t>
   </si>
 </sst>
 </file>
@@ -515,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,6 +707,20 @@
         <v>35</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
@@ -706,9 +732,10 @@
     <hyperlink ref="D6" r:id="rId7"/>
     <hyperlink ref="D13" r:id="rId8"/>
     <hyperlink ref="D14" r:id="rId9"/>
+    <hyperlink ref="D16" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/design/schematics/ArmControl/BOM.xlsx
+++ b/design/schematics/ArmControl/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>PART</t>
   </si>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>BF820-NPN-SOT23-BEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPOX-3 for AX-12A </t>
+  </si>
+  <si>
+    <t>AX-12A</t>
+  </si>
+  <si>
+    <t>SERVO</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Molex/22-43-6030/?qs=%2fha2pyFadujZSIkqFuu9pfAbA%252bc55yEPa0L20yR5s5c%3d</t>
   </si>
 </sst>
 </file>
@@ -527,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,15 +721,29 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -732,10 +758,11 @@
     <hyperlink ref="D6" r:id="rId7"/>
     <hyperlink ref="D13" r:id="rId8"/>
     <hyperlink ref="D14" r:id="rId9"/>
-    <hyperlink ref="D16" r:id="rId10"/>
+    <hyperlink ref="D17" r:id="rId10"/>
+    <hyperlink ref="D16" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/design/schematics/ArmControl/BOM.xlsx
+++ b/design/schematics/ArmControl/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
   <si>
     <t>PART</t>
   </si>
@@ -163,6 +163,96 @@
   </si>
   <si>
     <t>http://www.mouser.com/ProductDetail/Molex/22-43-6030/?qs=%2fha2pyFadujZSIkqFuu9pfAbA%252bc55yEPa0L20yR5s5c%3d</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.7K RESISTOR</t>
+  </si>
+  <si>
+    <t>3.3K RESISTOR</t>
+  </si>
+  <si>
+    <t>7K RESISTOR</t>
+  </si>
+  <si>
+    <t>10K RESISTOR</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Vishay-Thin-Film/PLTT0805Z1721AGT5/?qs=sGAEpiMZZMvdGkrng054t2RPW9MYoEveLabTrIrA%252buo%3d</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Panasonic/ERJ-P6WF3301V/?qs=sGAEpiMZZMvdGkrng054t4TwNrulOmeCGt9o4bxosTAKRbEIXdIPyg%3d%3d</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Vishay/TNPW08057061BT/?qs=sGAEpiMZZMvdGkrng054twN1Uf5gDWJOW9yH6oo%252bIik%3d</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Panasonic/ERJ-P6WF1002V/?qs=sGAEpiMZZMvdGkrng054t4TwNrulOmeC3j4fJE09Xf85wPvNPdhA1w%3d%3d</t>
+  </si>
+  <si>
+    <t>50 RESISTOR</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Vishay/CRCW080550R0FKTA/?qs=aRXG1QX2Yl9J6LSLM7CpJQ%3d%3d</t>
+  </si>
+  <si>
+    <t>370 RESISTOR</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/KOA-Speer/RN73H1ETTP3700F10/?qs=sGAEpiMZZMvdGkrng054t%252bj0%252bMDZxyyPf1KQYUrGN6Q%3d</t>
+  </si>
+  <si>
+    <t>1.5K RESISTOR</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Panasonic/ERJ-2RKF1501X/?qs=sGAEpiMZZMvdGkrng054t8AJgcdMkx7xOyRawAAbetk%3d</t>
+  </si>
+  <si>
+    <t>3.5mm Screw Terminal</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/8084</t>
+  </si>
+  <si>
+    <t>Molex 4 Wire Jumper assembly</t>
+  </si>
+  <si>
+    <t>Encoder connector @ board</t>
+  </si>
+  <si>
+    <t>Encoder connector @ encoder</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/9920</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/9921</t>
+  </si>
+  <si>
+    <t>Molex 5 Wire jumper assembly</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Murata-Electronics/GRM155R61A104KA01D/?qs=sGAEpiMZZMs0AnBnWHyRQEzybnecWqjRhOc0xHRv%252bw8%3d</t>
+  </si>
+  <si>
+    <t>R4,R5,R6,R7,R8,R9,R10,R11,R12,R14</t>
+  </si>
+  <si>
+    <t>R3,R25,R26,R27</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R15,R17,R20,R21,R24</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R16,R18,R19,R22,R23</t>
   </si>
 </sst>
 </file>
@@ -539,22 +629,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="155.28515625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="24.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="155.33203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -582,7 +672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -596,7 +686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -606,8 +696,11 @@
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -621,7 +714,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -635,7 +728,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -649,7 +742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -663,7 +756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -677,7 +770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -691,7 +784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -705,7 +798,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
@@ -719,7 +812,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -733,7 +826,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
@@ -745,6 +838,113 @@
       </c>
       <c r="D17" s="3" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -772,7 +972,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -784,7 +984,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/design/schematics/ArmControl/BOM.xlsx
+++ b/design/schematics/ArmControl/BOM.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
   <si>
     <t>PART</t>
   </si>
@@ -151,7 +151,7 @@
     <t>AX-12A</t>
   </si>
   <si>
-    <t>SPOX-3 for AX-12A </t>
+    <t>SPOX-3 for AX-12A</t>
   </si>
   <si>
     <t>http://www.mouser.com/ProductDetail/Molex/22-43-6030/?qs=%2fha2pyFadujZSIkqFuu9pfAbA%252bc55yEPa0L20yR5s5c%3d</t>
@@ -172,7 +172,7 @@
     <t>R15,R17,R20,R21,R24</t>
   </si>
   <si>
-    <t> 1.7K RESISTOR</t>
+    <t>1.7K RESISTOR</t>
   </si>
   <si>
     <t>http://www.mouser.com/ProductDetail/Vishay-Thin-Film/PLTT0805Z1721AGT5/?qs=sGAEpiMZZMvdGkrng054t2RPW9MYoEveLabTrIrA%252buo%3d</t>
@@ -263,6 +263,24 @@
   </si>
   <si>
     <t>http://www.mouser.com/ProductDetail/STMicroelectronics/LD1085D2T-R/?qs=sGAEpiMZZMsGz1a6aV8DcNi9%252bTg6j2AWastsvd5jJkk%3d</t>
+  </si>
+  <si>
+    <t>USD-CARDS</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Apacer/AP16GMCSH4-B/?qs=sGAEpiMZZMtyMAXUUxCBE4AZ7JbBE3hTRlqQ2Hq7Z8o%3d</t>
+  </si>
+  <si>
+    <t>BBB (3)</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/new/embedded-solutions/beagleboneblack/n-5g1kZ2bv0qx</t>
+  </si>
+  <si>
+    <t>AX-12A (1)</t>
+  </si>
+  <si>
+    <t>http://www.trossenrobotics.com/dynamixel-ax-12-robot-actuator.aspx</t>
   </si>
 </sst>
 </file>
@@ -394,7 +412,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Heading 1" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Heading 1" xfId="21" builtinId="54" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
   <colors>
@@ -465,9 +483,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -785,16 +803,19 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0"/>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
       <c r="D26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0"/>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
       <c r="D27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0"/>
       <c r="B28" s="1" t="s">
         <v>71</v>
       </c>
@@ -804,6 +825,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0"/>
       <c r="B29" s="1" t="s">
         <v>73</v>
       </c>
@@ -815,6 +837,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0"/>
       <c r="B30" s="1" t="s">
         <v>76</v>
       </c>
@@ -824,6 +847,12 @@
       <c r="D30" s="1" t="s">
         <v>78</v>
       </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0"/>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
@@ -837,6 +866,30 @@
       </c>
       <c r="D32" s="1" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/design/schematics/ArmControl/BOM.xlsx
+++ b/design/schematics/ArmControl/BOM.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
   <si>
     <t>PART</t>
   </si>
@@ -166,9 +165,6 @@
     <t>NPN Transistors</t>
   </si>
   <si>
-    <t>http://www.mouser.com/ProductDetail/Diodes-Incorporated/FMMT417TD/?qs=sGAEpiMZZMshyDBzk1%2fWizF0eVyYE44ZZcc0GAwJB3s%3d</t>
-  </si>
-  <si>
     <t>R15,R17,R20,R21,R24</t>
   </si>
   <si>
@@ -265,15 +261,9 @@
     <t>http://www.mouser.com/ProductDetail/STMicroelectronics/LD1085D2T-R/?qs=sGAEpiMZZMsGz1a6aV8DcNi9%252bTg6j2AWastsvd5jJkk%3d</t>
   </si>
   <si>
-    <t>USD-CARDS</t>
-  </si>
-  <si>
     <t>http://www.mouser.com/ProductDetail/Apacer/AP16GMCSH4-B/?qs=sGAEpiMZZMtyMAXUUxCBE4AZ7JbBE3hTRlqQ2Hq7Z8o%3d</t>
   </si>
   <si>
-    <t>BBB (3)</t>
-  </si>
-  <si>
     <t>http://www.mouser.com/new/embedded-solutions/beagleboneblack/n-5g1kZ2bv0qx</t>
   </si>
   <si>
@@ -281,16 +271,28 @@
   </si>
   <si>
     <t>http://www.trossenrobotics.com/dynamixel-ax-12-robot-actuator.aspx</t>
+  </si>
+  <si>
+    <t>QUANTITY</t>
+  </si>
+  <si>
+    <t>1 (pack of 25)</t>
+  </si>
+  <si>
+    <t>uSD-CARDS</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/NXP/BC846215/?qs=%2fha2pyFadujuUAn4sl%2fZ3HIadiACA4SYaUXXifegWq7CBv9Mh%252bf%252blQ%3d%3d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -299,22 +301,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="15"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
@@ -322,7 +309,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -339,14 +326,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -356,65 +343,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Heading 1" xfId="21" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="TableStyleLight1" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -473,497 +429,818 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF1F497D"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.004048582996"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.331983805668"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="32.1052631578947"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="155.327935222672"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.11336032388664"/>
+    <col min="1" max="1" width="30.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" style="3"/>
+    <col min="4" max="4" width="26" style="3" customWidth="1"/>
+    <col min="5" max="5" width="139.28515625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="20.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="3">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="3">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="3">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
-      <c r="D12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="3">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="3">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="3">
+        <v>25</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="3">
+        <v>25</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="0"/>
-      <c r="D19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="3">
+        <v>25</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="0"/>
-      <c r="D20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D21" s="3">
+        <v>10</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="0"/>
-      <c r="D21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="3">
+        <v>25</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="0"/>
-      <c r="D22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="3">
+        <v>25</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="0"/>
-      <c r="D23" s="1" t="s">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D24" s="3">
+        <v>25</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="0"/>
-      <c r="D24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="D25" s="3">
+        <v>25</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="0"/>
-      <c r="D25" s="1" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0"/>
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="B28" s="1" t="s">
+      <c r="D28" s="3">
+        <v>15</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="0"/>
-      <c r="D28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0"/>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="3">
+        <v>10</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0"/>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="3">
+        <v>10</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="1" t="s">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
-      <c r="B31" s="0"/>
-      <c r="C31" s="0"/>
-      <c r="D31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="3">
+        <v>5</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="1" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="1" t="s">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://www.mouser.com/ProductDetail/Panasonic/EEE-1HA101UP/?qs=sGAEpiMZZMsh%252b1woXyUXj5yjySvXixb0PHeYiLMejMg%3d"/>
-    <hyperlink ref="D5" r:id="rId2" display="http://www.mouser.com/ProductDetail/STMicroelectronics/STTH5R06GY-TR/?qs=sGAEpiMZZMtoHjESLttvkp8idLYzK2a8ecDhIjQRqPo%3d"/>
-    <hyperlink ref="D6" r:id="rId3" display="http://www.mouser.com/ProductDetail/Fairchild-Semiconductor/1N4148/?qs=sGAEpiMZZMudZehw8RjeZWbu6z6oTQTL"/>
-    <hyperlink ref="D7" r:id="rId4" display="https://www.sparkfun.com/products/12619"/>
-    <hyperlink ref="D8" r:id="rId5" display="https://www.sparkfun.com/products/12622"/>
-    <hyperlink ref="D9" r:id="rId6" display="https://www.sparkfun.com/products/12620"/>
-    <hyperlink ref="D10" r:id="rId7" display="https://www.sparkfun.com/products/12621"/>
-    <hyperlink ref="D13" r:id="rId8" display="http://www.mouser.com/ProductDetail/Fairchild-Semiconductor/FQP27P06/?qs=sGAEpiMZZMshyDBzk1%2fWi1oKJWRB0GXwqvciOrvtG%2f4%3d"/>
-    <hyperlink ref="D14" r:id="rId9" display="http://www.mouser.com/ProductDetail/Fairchild-Semiconductor/FQP30N06L/?qs=%2fha2pyFaduji0fg%2flrI0nk1olBaTBVmAwVSKddLwzfQ%3d"/>
-    <hyperlink ref="D16" r:id="rId10" display="http://www.mouser.com/ProductDetail/Molex/22-43-6030/?qs=%2fha2pyFadujZSIkqFuu9pfAbA%252bc55yEPa0L20yR5s5c%3d"/>
-    <hyperlink ref="D17" r:id="rId11" display="http://www.mouser.com/ProductDetail/Diodes-Incorporated/FMMT417TD/?qs=sGAEpiMZZMshyDBzk1%2fWizF0eVyYE44ZZcc0GAwJB3s%3d"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="E6" r:id="rId3"/>
+    <hyperlink ref="E7" r:id="rId4"/>
+    <hyperlink ref="E8" r:id="rId5"/>
+    <hyperlink ref="E9" r:id="rId6"/>
+    <hyperlink ref="E10" r:id="rId7"/>
+    <hyperlink ref="E13" r:id="rId8"/>
+    <hyperlink ref="E14" r:id="rId9"/>
+    <hyperlink ref="E16" r:id="rId10"/>
+    <hyperlink ref="E19" r:id="rId11"/>
+    <hyperlink ref="E20" r:id="rId12"/>
+    <hyperlink ref="E21" r:id="rId13"/>
+    <hyperlink ref="E23" r:id="rId14"/>
+    <hyperlink ref="E25" r:id="rId15"/>
+    <hyperlink ref="E29" r:id="rId16"/>
+    <hyperlink ref="E22" r:id="rId17"/>
+    <hyperlink ref="E24" r:id="rId18"/>
+    <hyperlink ref="E28" r:id="rId19"/>
+    <hyperlink ref="E30" r:id="rId20"/>
+    <hyperlink ref="E32" r:id="rId21"/>
+    <hyperlink ref="E34" r:id="rId22"/>
+    <hyperlink ref="E35" r:id="rId23"/>
+    <hyperlink ref="E36" r:id="rId24"/>
+    <hyperlink ref="E17" r:id="rId25"/>
+    <hyperlink ref="E3" r:id="rId26"/>
+    <hyperlink ref="E4" r:id="rId27"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/design/schematics/ArmControl/BOM.xlsx
+++ b/design/schematics/ArmControl/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,9 +159,6 @@
     <t>T1 to T6</t>
   </si>
   <si>
-    <t>BF820-NPN-SOT23-BEC</t>
-  </si>
-  <si>
     <t>NPN Transistors</t>
   </si>
   <si>
@@ -286,6 +283,9 @@
   </si>
   <si>
     <t>http://www.mouser.com/ProductDetail/NXP/BC846215/?qs=%2fha2pyFadujuUAn4sl%2fZ3HIadiACA4SYaUXXifegWq7CBv9Mh%252bf%252blQ%3d%3d</t>
+  </si>
+  <si>
+    <t>BC846-NPN-SOT23-BEC</t>
   </si>
 </sst>
 </file>
@@ -736,21 +736,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:E36"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="30" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" style="3"/>
+    <col min="3" max="3" width="32.109375" style="3"/>
     <col min="4" max="4" width="26" style="3" customWidth="1"/>
-    <col min="5" max="5" width="139.28515625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="5" max="5" width="139.33203125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,13 +761,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -784,7 +784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -801,7 +801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -818,7 +818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -835,7 +835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -852,7 +852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -863,13 +863,13 @@
         <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -880,13 +880,13 @@
         <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -897,13 +897,13 @@
         <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
@@ -914,13 +914,13 @@
         <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
@@ -937,7 +937,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
@@ -954,7 +954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
@@ -971,211 +971,211 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D17" s="3">
         <v>25</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D19" s="3">
         <v>25</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D20" s="3">
         <v>25</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="D21" s="3">
         <v>10</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D22" s="3">
         <v>25</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="D23" s="3">
         <v>25</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D24" s="3">
         <v>25</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D25" s="3">
         <v>25</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="D28" s="3">
         <v>15</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="D29" s="3">
         <v>10</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="D30" s="3">
         <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="C32" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D32" s="3">
         <v>5</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D34" s="3">
         <v>2</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" s="3">
         <v>2</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1219,9 +1219,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col min="1" max="1025" width="8.5546875"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1235,9 +1235,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col min="1" max="1025" width="8.5546875"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/design/schematics/ArmControl/BOM.xlsx
+++ b/design/schematics/ArmControl/BOM.xlsx
@@ -213,9 +213,6 @@
     <t>370 RESISTOR</t>
   </si>
   <si>
-    <t>http://www.mouser.com/ProductDetail/KOA-Speer/RN73H1ETTP3700F10/?qs=sGAEpiMZZMvdGkrng054t%252bj0%252bMDZxyyPf1KQYUrGN6Q%3d</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
@@ -286,6 +283,9 @@
   </si>
   <si>
     <t>BC846-NPN-SOT23-BEC</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Panasonic/ERJ-2RKF3740X/?qs=sGAEpiMZZMvdGkrng054t8AJgcdMkx7x12YxA1eMwik%3d</t>
   </si>
 </sst>
 </file>
@@ -736,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -863,7 +863,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -880,7 +880,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>27</v>
@@ -897,7 +897,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
@@ -914,7 +914,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>33</v>
@@ -976,7 +976,7 @@
         <v>46</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>47</v>
@@ -985,7 +985,7 @@
         <v>25</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1069,77 +1069,77 @@
         <v>25</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="D25" s="3">
         <v>25</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="3">
         <v>15</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="D29" s="3">
         <v>10</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="D30" s="3">
         <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="C32" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D32" s="3">
         <v>5</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1147,35 +1147,35 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D34" s="3">
         <v>2</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D35" s="3">
         <v>2</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1197,16 +1197,15 @@
     <hyperlink ref="E25" r:id="rId15"/>
     <hyperlink ref="E29" r:id="rId16"/>
     <hyperlink ref="E22" r:id="rId17"/>
-    <hyperlink ref="E24" r:id="rId18"/>
-    <hyperlink ref="E28" r:id="rId19"/>
-    <hyperlink ref="E30" r:id="rId20"/>
-    <hyperlink ref="E32" r:id="rId21"/>
-    <hyperlink ref="E34" r:id="rId22"/>
-    <hyperlink ref="E35" r:id="rId23"/>
-    <hyperlink ref="E36" r:id="rId24"/>
-    <hyperlink ref="E17" r:id="rId25"/>
-    <hyperlink ref="E3" r:id="rId26"/>
-    <hyperlink ref="E4" r:id="rId27"/>
+    <hyperlink ref="E28" r:id="rId18"/>
+    <hyperlink ref="E30" r:id="rId19"/>
+    <hyperlink ref="E32" r:id="rId20"/>
+    <hyperlink ref="E34" r:id="rId21"/>
+    <hyperlink ref="E35" r:id="rId22"/>
+    <hyperlink ref="E36" r:id="rId23"/>
+    <hyperlink ref="E17" r:id="rId24"/>
+    <hyperlink ref="E3" r:id="rId25"/>
+    <hyperlink ref="E4" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/design/schematics/ArmControl/BOM.xlsx
+++ b/design/schematics/ArmControl/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="98">
   <si>
     <t>PART</t>
   </si>
@@ -286,6 +286,30 @@
   </si>
   <si>
     <t>http://www.mouser.com/ProductDetail/Panasonic/ERJ-2RKF3740X/?qs=sGAEpiMZZMvdGkrng054t8AJgcdMkx7x12YxA1eMwik%3d</t>
+  </si>
+  <si>
+    <t>REORDERS:</t>
+  </si>
+  <si>
+    <t>Shottkey 2A Diode</t>
+  </si>
+  <si>
+    <t>Current protection diode</t>
+  </si>
+  <si>
+    <t>ALTERNATE</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/STMicroelectronics/STPS2150A/?qs=sGAEpiMZZMtQ8nqTKtFS/D9SVzsgHTKGOE6qlz74chY%3d</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/STMicroelectronics/STPS2L60A/?qs=sGAEpiMZZMtQ8nqTKtFS/BdOQ7hRVdjrRRcw/Z2mnfk%3d</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Nichicon/UWT1V101MCL1GS/?qs=sGAEpiMZZMtZ1n0r9vR22RxmuzErLMSVBmnA2mTwl6Q%3d</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Panasonic/EEE-FTH101XAP/?qs=sGAEpiMZZMtZ1n0r9vR22faLJZo9l6aZd9hc%252bS3UNLs%3d</t>
   </si>
 </sst>
 </file>
@@ -734,23 +758,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="30" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" style="3"/>
+    <col min="3" max="3" width="32.140625" style="3"/>
     <col min="4" max="4" width="26" style="3" customWidth="1"/>
-    <col min="5" max="5" width="139.33203125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="3"/>
+    <col min="5" max="5" width="139.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="123.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,7 +792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -784,7 +809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -801,7 +826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -818,7 +843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -835,7 +860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -852,7 +877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -869,7 +894,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -886,7 +911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -903,7 +928,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
@@ -920,7 +945,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
@@ -937,7 +962,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
@@ -954,7 +979,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
@@ -971,7 +996,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
@@ -988,7 +1013,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>48</v>
       </c>
@@ -1002,7 +1027,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>51</v>
       </c>
@@ -1016,7 +1041,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>54</v>
       </c>
@@ -1030,7 +1055,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>57</v>
       </c>
@@ -1044,7 +1069,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>60</v>
       </c>
@@ -1058,7 +1083,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>63</v>
       </c>
@@ -1072,7 +1097,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>65</v>
       </c>
@@ -1086,7 +1111,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>68</v>
       </c>
@@ -1097,7 +1122,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>70</v>
       </c>
@@ -1111,7 +1136,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>73</v>
       </c>
@@ -1125,7 +1150,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>76</v>
       </c>
@@ -1142,10 +1167,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>85</v>
       </c>
@@ -1156,7 +1181,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>86</v>
       </c>
@@ -1167,7 +1192,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>81</v>
       </c>
@@ -1176,6 +1201,54 @@
       </c>
       <c r="E36" s="4" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="3">
+        <v>8</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="3">
+        <v>8</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1218,9 +1291,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.5546875"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1234,9 +1307,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.5546875"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
